--- a/biology/Biochimie/Hespérétine/Hespérétine.xlsx
+++ b/biology/Biochimie/Hespérétine/Hespérétine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9r%C3%A9tine</t>
+          <t>Hespérétine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'hespérétine est un composé organique de la famille des flavanones, un sous-groupe des flavonoïdes. On la trouve dans la nature principalement sous la forme de son hétéroside, l'hespéridine.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9r%C3%A9tine</t>
+          <t>Hespérétine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hespérétine a été isolée pour la première fois en 1928, par hydrolyse de l'hespéridine.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9r%C3%A9tine</t>
+          <t>Hespérétine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +557,11 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hespérétine naturelle est chirale. Le pouvoir rotatoire spécifique de la (S)-(−)-hespérétine est de −37,6 ° (c = 1,8 M dans l'éthanol à 27 °C)[2].
-Propriétés pharmacologiques
-L'hespérétine est un puissant antioxydant qui empêche notamment le peroxydation des lipides et peut protéger les cellules nerveuses  (neuroprotection)[4].
-En outre, l'hespérétine et ses métabolites réduisent la teneur en lipides du sang car ils empêcheraient la biosynthèse de cholestérol[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hespérétine naturelle est chirale. Le pouvoir rotatoire spécifique de la (S)-(−)-hespérétine est de −37,6 ° (c = 1,8 M dans l'éthanol à 27 °C).
 </t>
         </is>
       </c>
@@ -559,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9r%C3%A9tine</t>
+          <t>Hespérétine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,13 +587,53 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Propriétés</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Propriétés pharmacologiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hespérétine est un puissant antioxydant qui empêche notamment le peroxydation des lipides et peut protéger les cellules nerveuses  (neuroprotection).
+En outre, l'hespérétine et ses métabolites réduisent la teneur en lipides du sang car ils empêcheraient la biosynthèse de cholestérol.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hespérétine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9r%C3%A9tine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Hétérosides</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son principal hétéroside est l'hespéridine, son 7-O-rutinoside, présent dans les fruits du genre Citrus, et utilisée pour ses propriétés pharmacologiques. L'hespérétine est un produit de la métabolisation de l'hespéridine.
-L'hespérétine a aussi un 7-néohespéridoside, la néohespéridine, et l'hespérétine 7-rhamnoside, qui est présent dans Cordia obliqua[6].
+L'hespérétine a aussi un 7-néohespéridoside, la néohespéridine, et l'hespérétine 7-rhamnoside, qui est présent dans Cordia obliqua.
 Sur les autres projets Wikimedia :
 Hespérétine, sur Wikimedia Commons
 </t>
